--- a/Excel sheets/PQU213.xlsx
+++ b/Excel sheets/PQU213.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>3zGMd7AtwYutZJIALYrV240nG9vzxti6</t>
+          <t>aV6YmfSowuJVGQEPdgZPwQupubIDyvac</t>
         </is>
       </c>
     </row>
